--- a/data/trans_orig/IP32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77EDFB2-444B-466E-BD70-2851ACD7EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{617B4DF5-E704-464A-97B1-D1811ED4330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3F7A6A75-685F-4393-8490-7FCBC5AF9DE0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3EB1F7C4-CA8C-4819-83F8-AF7B401B1779}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -101,6 +101,36 @@
     <t>90,73%</t>
   </si>
   <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
     <t>Extranjero</t>
   </si>
   <si>
@@ -131,39 +161,90 @@
     <t>7,1%</t>
   </si>
   <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -188,12 +269,33 @@
     <t>91,9%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
     <t>93,78%</t>
   </si>
   <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
@@ -221,108 +323,6 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
     <t>89,7%</t>
   </si>
   <si>
@@ -350,6 +350,33 @@
     <t>91,35%</t>
   </si>
   <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
     <t>4,61%</t>
   </si>
   <si>
@@ -377,33 +404,6 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
     <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -434,12 +434,36 @@
     <t>99,44%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,19%</t>
   </si>
   <si>
@@ -458,28 +482,73 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>91,25%</t>
@@ -509,6 +578,21 @@
     <t>93,11%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>6,81%</t>
   </si>
   <si>
@@ -536,90 +620,6 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>94,82%</t>
   </si>
   <si>
@@ -647,6 +647,27 @@
     <t>95,76%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>3,68%</t>
   </si>
   <si>
@@ -665,27 +686,6 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
@@ -713,6 +713,27 @@
     <t>99,42%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>1,97%</t>
   </si>
   <si>
@@ -731,25 +752,67 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>96,38%</t>
@@ -779,6 +842,21 @@
     <t>96,13%</t>
   </si>
   <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>3,12%</t>
   </si>
   <si>
@@ -806,84 +884,6 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
     <t>97,12%</t>
   </si>
   <si>
@@ -911,6 +911,21 @@
     <t>97,35%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>1,85%</t>
   </si>
   <si>
@@ -935,21 +950,6 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
@@ -974,6 +974,24 @@
     <t>98,85%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>1,19%</t>
   </si>
   <si>
@@ -989,22 +1007,64 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>97,0%</t>
@@ -1031,6 +1091,24 @@
     <t>95,4%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
@@ -1043,84 +1121,6 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>95,34%</t>
   </si>
   <si>
@@ -1142,6 +1142,24 @@
     <t>97,86%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
@@ -1161,24 +1179,6 @@
   </si>
   <si>
     <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139B3424-C6FF-4353-9AB2-72B04A94910A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36061EEB-5924-4076-95EA-6C9B3362026C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1739,10 +1739,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>12386</v>
+        <v>14345</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1754,10 +1754,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>10711</v>
+        <v>11809</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1769,10 +1769,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>23097</v>
+        <v>26154</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1790,10 +1790,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>14345</v>
+        <v>12386</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1805,10 +1805,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>11809</v>
+        <v>10711</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1820,10 +1820,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>26154</v>
+        <v>23097</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1894,10 +1894,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>255070</v>
+        <v>195723</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1909,10 +1909,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="I8" s="7">
-        <v>247157</v>
+        <v>180981</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1924,10 +1924,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>750</v>
+        <v>566</v>
       </c>
       <c r="N8" s="7">
-        <v>502227</v>
+        <v>376704</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1945,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>10097</v>
+        <v>10934</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1960,10 +1960,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>9876</v>
+        <v>12087</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1975,10 +1975,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>19973</v>
+        <v>23021</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1996,46 +1996,46 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>15700</v>
+        <v>10712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>8570</v>
+        <v>10900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>24270</v>
+        <v>21611</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>67</v>
@@ -2047,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>280867</v>
+        <v>217369</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2062,10 +2062,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="I11" s="7">
-        <v>265603</v>
+        <v>203968</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2077,10 +2077,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>815</v>
+        <v>631</v>
       </c>
       <c r="N11" s="7">
-        <v>546470</v>
+        <v>421336</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2100,46 +2100,46 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="D12" s="7">
-        <v>195723</v>
+        <v>255070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="I12" s="7">
-        <v>180981</v>
+        <v>247157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>566</v>
+        <v>750</v>
       </c>
       <c r="N12" s="7">
-        <v>376704</v>
+        <v>502227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>76</v>
@@ -2151,49 +2151,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>10712</v>
+        <v>15700</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8570</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10900</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>35</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24270</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="7">
-        <v>32</v>
-      </c>
-      <c r="N13" s="7">
-        <v>21611</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,40 +2202,40 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>10934</v>
+        <v>10097</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9876</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12087</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>23021</v>
+        <v>19973</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>91</v>
@@ -2253,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="D15" s="7">
-        <v>217369</v>
+        <v>280867</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2268,10 +2268,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="I15" s="7">
-        <v>203968</v>
+        <v>265603</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2283,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>631</v>
+        <v>815</v>
       </c>
       <c r="N15" s="7">
-        <v>421336</v>
+        <v>546470</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2357,10 +2357,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>33195</v>
+        <v>40979</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -2372,10 +2372,10 @@
         <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>31487</v>
+        <v>32466</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>106</v>
@@ -2387,10 +2387,10 @@
         <v>108</v>
       </c>
       <c r="M17" s="7">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N17" s="7">
-        <v>64681</v>
+        <v>73446</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>109</v>
@@ -2408,10 +2408,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>40979</v>
+        <v>33195</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>112</v>
@@ -2423,10 +2423,10 @@
         <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>32466</v>
+        <v>31487</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>115</v>
@@ -2438,10 +2438,10 @@
         <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N18" s="7">
-        <v>73446</v>
+        <v>64681</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -2520,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA50667-63EA-49D6-B5A7-9710A47353E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCA4853-A000-4AEC-99E5-FA1911DE5226}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2689,10 +2689,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1051</v>
+        <v>1356</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>131</v>
@@ -2704,34 +2704,34 @@
         <v>133</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1228</v>
+        <v>1879</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>2279</v>
+        <v>3236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,40 +2740,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1356</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1879</v>
+        <v>1228</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>3236</v>
+        <v>2279</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>144</v>
@@ -2844,10 +2844,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="D8" s="7">
-        <v>248533</v>
+        <v>229171</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>147</v>
@@ -2859,10 +2859,10 @@
         <v>149</v>
       </c>
       <c r="H8" s="7">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="I8" s="7">
-        <v>232792</v>
+        <v>218285</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>150</v>
@@ -2874,10 +2874,10 @@
         <v>152</v>
       </c>
       <c r="M8" s="7">
-        <v>711</v>
+        <v>628</v>
       </c>
       <c r="N8" s="7">
-        <v>481325</v>
+        <v>447456</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>153</v>
@@ -2895,49 +2895,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>18542</v>
+        <v>4678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3849</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="7">
-        <v>19</v>
-      </c>
-      <c r="I9" s="7">
-        <v>17372</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7">
+        <v>12</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8528</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M9" s="7">
-        <v>38</v>
-      </c>
-      <c r="N9" s="7">
-        <v>35914</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,46 +2949,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>5277</v>
+        <v>8142</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7338</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6247</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15480</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M10" s="7">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7">
-        <v>11524</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="D11" s="7">
-        <v>272352</v>
+        <v>241991</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3012,10 +3012,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3027,10 +3027,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="N11" s="7">
-        <v>528763</v>
+        <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3050,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="D12" s="7">
-        <v>229171</v>
+        <v>248533</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>337</v>
+      </c>
+      <c r="I12" s="7">
+        <v>232792</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="7">
-        <v>308</v>
-      </c>
-      <c r="I12" s="7">
-        <v>218285</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>711</v>
+      </c>
+      <c r="N12" s="7">
+        <v>481325</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M12" s="7">
-        <v>628</v>
-      </c>
-      <c r="N12" s="7">
-        <v>447456</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,46 +3104,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8142</v>
+        <v>5277</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6247</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>11524</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7338</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15480</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3152,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>4678</v>
+        <v>18542</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>17372</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3849</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>38</v>
+      </c>
+      <c r="N14" s="7">
+        <v>35914</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8528</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D15" s="7">
-        <v>241991</v>
+        <v>272352</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3218,10 +3218,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3233,10 +3233,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="N15" s="7">
-        <v>471463</v>
+        <v>528763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3307,49 +3307,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>27735</v>
+        <v>11312</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11976</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25937</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7">
+        <v>23287</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="M17" s="7">
-        <v>57</v>
-      </c>
-      <c r="N17" s="7">
-        <v>53673</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,49 +3358,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>11312</v>
+        <v>27735</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>11976</v>
+        <v>25937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M18" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>23287</v>
+        <v>53673</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,7 +3470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0488A53-298B-4658-9E74-B608CEFFB7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644DD87D-1DA7-4B94-ABD7-D7C5ABD0BF47}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3612,7 @@
         <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>220</v>
@@ -3639,49 +3639,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2028</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>937</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>597</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2010</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>2947</v>
+        <v>2625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +3690,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>937</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2010</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <v>2028</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>597</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7">
+        <v>2947</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M6" s="7">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2625</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,10 +3794,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D8" s="7">
-        <v>270749</v>
+        <v>241727</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>237</v>
@@ -3812,7 +3812,7 @@
         <v>351</v>
       </c>
       <c r="I8" s="7">
-        <v>248038</v>
+        <v>229225</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>240</v>
@@ -3824,10 +3824,10 @@
         <v>242</v>
       </c>
       <c r="M8" s="7">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="N8" s="7">
-        <v>518787</v>
+        <v>470952</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>243</v>
@@ -3845,49 +3845,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>8779</v>
+        <v>4269</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4028</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H9" s="7">
-        <v>14</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12570</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" s="7">
+        <v>12</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8298</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M9" s="7">
-        <v>23</v>
-      </c>
-      <c r="N9" s="7">
-        <v>21349</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3896,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>1389</v>
+        <v>4055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2080</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6135</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7161</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="M10" s="7">
-        <v>12</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8550</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>280916</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3962,10 +3962,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I11" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3977,10 +3977,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>548686</v>
+        <v>485385</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4000,49 +4000,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="D12" s="7">
-        <v>241727</v>
+        <v>270749</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>351</v>
       </c>
       <c r="I12" s="7">
-        <v>229225</v>
+        <v>248038</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>720</v>
+      </c>
+      <c r="N12" s="7">
+        <v>518787</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M12" s="7">
-        <v>703</v>
-      </c>
-      <c r="N12" s="7">
-        <v>470952</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +4051,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>4055</v>
+        <v>1389</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7161</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8550</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2080</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6135</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,43 +4102,43 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>4269</v>
+        <v>8779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="7">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12570</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>277</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>8298</v>
+        <v>21349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>279</v>
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>280916</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4168,10 +4168,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I15" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4183,10 +4183,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="N15" s="7">
-        <v>485385</v>
+        <v>548686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4257,49 +4257,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>13771</v>
+        <v>7686</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11786</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16660</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>29</v>
+      </c>
+      <c r="N17" s="7">
+        <v>19472</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M17" s="7">
-        <v>35</v>
-      </c>
-      <c r="N17" s="7">
-        <v>30431</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +4308,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>7686</v>
+        <v>13771</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="7">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16660</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11786</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>35</v>
+      </c>
+      <c r="N18" s="7">
+        <v>30431</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M18" s="7">
-        <v>29</v>
-      </c>
-      <c r="N18" s="7">
-        <v>19472</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9464A714-C9CB-495E-8A83-E36993C2052C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BBD7BD-2759-4DD9-A987-5DE7934E157D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4589,49 +4589,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>319</v>
+        <v>602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>3755</v>
+        <v>822</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>4074</v>
+        <v>1423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4640,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>602</v>
+        <v>319</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>132</v>
@@ -4655,34 +4655,34 @@
         <v>317</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>822</v>
+        <v>3755</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>319</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>1423</v>
+        <v>4074</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,10 +4744,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="D8" s="7">
-        <v>390618</v>
+        <v>196541</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>322</v>
@@ -4759,10 +4759,10 @@
         <v>324</v>
       </c>
       <c r="H8" s="7">
-        <v>446</v>
+        <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>339987</v>
+        <v>193297</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>325</v>
@@ -4774,10 +4774,10 @@
         <v>327</v>
       </c>
       <c r="M8" s="7">
-        <v>908</v>
+        <v>528</v>
       </c>
       <c r="N8" s="7">
-        <v>730605</v>
+        <v>389839</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>328</v>
@@ -4786,7 +4786,7 @@
         <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,49 +4795,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>8196</v>
+        <v>1173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>4902</v>
+        <v>2085</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>13099</v>
+        <v>3258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,49 +4846,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7341</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>3896</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
       <c r="I10" s="7">
-        <v>4724</v>
+        <v>2885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>8620</v>
+        <v>10226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,10 +4897,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4912,10 +4912,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4927,10 +4927,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>940</v>
+        <v>552</v>
       </c>
       <c r="N11" s="7">
-        <v>752324</v>
+        <v>403323</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4950,49 +4950,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>462</v>
       </c>
       <c r="D12" s="7">
-        <v>196541</v>
+        <v>390618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="I12" s="7">
-        <v>193297</v>
+        <v>339987</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
-        <v>528</v>
+        <v>908</v>
       </c>
       <c r="N12" s="7">
-        <v>389839</v>
+        <v>730605</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,49 +5001,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>7341</v>
+        <v>3896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>2885</v>
+        <v>4724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>10226</v>
+        <v>8620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,49 +5052,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>1173</v>
+        <v>8196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>2085</v>
+        <v>4902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>3258</v>
+        <v>13099</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5118,10 +5118,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I15" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5133,10 +5133,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>552</v>
+        <v>940</v>
       </c>
       <c r="N15" s="7">
-        <v>403323</v>
+        <v>752324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5162,7 +5162,7 @@
         <v>704178</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>360</v>
@@ -5195,7 +5195,7 @@
         <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>366</v>
@@ -5207,49 +5207,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>15856</v>
+        <v>5670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>11543</v>
+        <v>7631</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>27399</v>
+        <v>13301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,49 +5258,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>5670</v>
+        <v>15856</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>23</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11543</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7631</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>48</v>
+      </c>
+      <c r="N18" s="7">
+        <v>27399</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="M18" s="7">
-        <v>21</v>
-      </c>
-      <c r="N18" s="7">
-        <v>13301</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{617B4DF5-E704-464A-97B1-D1811ED4330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A697C355-5AC9-4AC5-BB09-9BD93D108347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3EB1F7C4-CA8C-4819-83F8-AF7B401B1779}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AE55B09-575B-4B43-82CF-DF6453762D6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="464">
   <si>
     <t>Menores según su lugar de nacimiento en 2007 (Tasa respuesta: 99,67%)</t>
   </si>
@@ -68,1117 +68,1369 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>Andalucia</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>Extranjero</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1441,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1285,39 +1537,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1369,7 +1621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1480,13 +1732,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1495,6 +1740,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1559,19 +1811,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36061EEB-5924-4076-95EA-6C9B3362026C}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B6A8F6-F74C-4845-A913-0F4922DD0055}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1688,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>195018</v>
+        <v>7496</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1703,10 +1975,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>187096</v>
+        <v>4063</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1718,10 +1990,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>579</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>382115</v>
+        <v>11559</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1739,10 +2011,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>14345</v>
+        <v>8992</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1754,10 +2026,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>11809</v>
+        <v>6945</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1769,10 +2041,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>26154</v>
+        <v>15937</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1790,10 +2062,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="D6" s="7">
-        <v>12386</v>
+        <v>103481</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1805,10 +2077,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I6" s="7">
-        <v>10711</v>
+        <v>94584</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1820,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="N6" s="7">
-        <v>23097</v>
+        <v>198064</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1841,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>221749</v>
+        <v>119968</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1856,10 +2128,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="I7" s="7">
-        <v>209616</v>
+        <v>105592</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1871,10 +2143,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>341</v>
       </c>
       <c r="N7" s="7">
-        <v>431366</v>
+        <v>225560</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1894,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>195723</v>
+        <v>12338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1909,10 +2181,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>180981</v>
+        <v>16179</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1924,10 +2196,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>566</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>376704</v>
+        <v>28517</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1945,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>10934</v>
+        <v>12862</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1960,10 +2232,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>12087</v>
+        <v>13920</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1972,22 +2244,22 @@
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
+        <v>39</v>
+      </c>
+      <c r="N9" s="7">
+        <v>26782</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>33</v>
-      </c>
-      <c r="N9" s="7">
-        <v>23021</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,49 +2268,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="D10" s="7">
-        <v>10712</v>
+        <v>227884</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>222531</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10900</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>678</v>
+      </c>
+      <c r="N10" s="7">
+        <v>450414</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>32</v>
-      </c>
-      <c r="N10" s="7">
-        <v>21611</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>217369</v>
+        <v>253084</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2062,10 +2334,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="I11" s="7">
-        <v>203968</v>
+        <v>252629</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2077,10 +2349,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>631</v>
+        <v>759</v>
       </c>
       <c r="N11" s="7">
-        <v>421336</v>
+        <v>505713</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2094,52 +2366,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>383</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>255070</v>
+        <v>4727</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5315</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="7">
-        <v>367</v>
-      </c>
-      <c r="I12" s="7">
-        <v>247157</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>10042</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="7">
-        <v>750</v>
-      </c>
-      <c r="N12" s="7">
-        <v>502227</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>76</v>
@@ -2151,28 +2423,28 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>15700</v>
+        <v>6066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>8570</v>
+        <v>6726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>80</v>
@@ -2181,10 +2453,10 @@
         <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>24270</v>
+        <v>12792</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>82</v>
@@ -2202,10 +2474,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>10097</v>
+        <v>130722</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>85</v>
@@ -2217,10 +2489,10 @@
         <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="I14" s="7">
-        <v>9876</v>
+        <v>114829</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -2232,10 +2504,10 @@
         <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="N14" s="7">
-        <v>19973</v>
+        <v>245551</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>91</v>
@@ -2253,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>421</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>280867</v>
+        <v>141515</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2268,10 +2540,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>126870</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2283,10 +2555,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>815</v>
+        <v>402</v>
       </c>
       <c r="N15" s="7">
-        <v>546470</v>
+        <v>268385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2300,55 +2572,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>973</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>645812</v>
+        <v>8634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>922</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>615234</v>
+        <v>5930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
-        <v>1895</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>1261045</v>
+        <v>14564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2629,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>40979</v>
+        <v>13059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>32466</v>
+        <v>4876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>73446</v>
+        <v>17935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,49 +2680,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="D18" s="7">
-        <v>33195</v>
+        <v>183724</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="I18" s="7">
-        <v>31487</v>
+        <v>183292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>547</v>
       </c>
       <c r="N18" s="7">
-        <v>64681</v>
+        <v>367016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,55 +2731,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>309</v>
+      </c>
+      <c r="D19" s="7">
+        <v>205418</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>286</v>
+      </c>
+      <c r="I19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>595</v>
+      </c>
+      <c r="N19" s="7">
+        <v>399515</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7">
+        <v>33195</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>47</v>
+      </c>
+      <c r="I20" s="7">
+        <v>31487</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="7">
+        <v>96</v>
+      </c>
+      <c r="N20" s="7">
+        <v>64681</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7">
+        <v>40979</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="7">
+        <v>46</v>
+      </c>
+      <c r="I21" s="7">
+        <v>32466</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="7">
+        <v>106</v>
+      </c>
+      <c r="N21" s="7">
+        <v>73446</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>973</v>
+      </c>
+      <c r="D22" s="7">
+        <v>645811</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="7">
+        <v>922</v>
+      </c>
+      <c r="I22" s="7">
+        <v>615234</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1895</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1261045</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1082</v>
       </c>
-      <c r="D19" s="7">
-        <v>719986</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="D23" s="7">
+        <v>719985</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1015</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>679187</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
         <v>2097</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1399172</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2520,8 +3004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCA4853-A000-4AEC-99E5-FA1911DE5226}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FB4F44-2377-408C-A73C-183D58A8E1DE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2537,7 +3021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2638,49 +3122,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>236756</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>222401</v>
+        <v>567</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
-        <v>669</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>459157</v>
+        <v>567</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,49 +3173,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1356</v>
+        <v>756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1879</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>3236</v>
+        <v>756</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,49 +3224,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D6" s="7">
-        <v>1051</v>
+        <v>145234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>1228</v>
+        <v>146194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>2279</v>
+        <v>291428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +3275,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D7" s="7">
-        <v>239164</v>
+        <v>145990</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2806,10 +3290,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I7" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2821,10 +3305,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>677</v>
+        <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>464672</v>
+        <v>292751</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2844,49 +3328,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>229171</v>
+        <v>7203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>218285</v>
+        <v>5265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
-        <v>628</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>447456</v>
+        <v>12468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,49 +3379,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>4678</v>
+        <v>3248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>3849</v>
+        <v>4251</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>8528</v>
+        <v>7499</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,49 +3430,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="D10" s="7">
-        <v>8142</v>
+        <v>258540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="I10" s="7">
-        <v>7338</v>
+        <v>226734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>690</v>
       </c>
       <c r="N10" s="7">
-        <v>15480</v>
+        <v>485274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D11" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3012,10 +3496,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I11" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3027,10 +3511,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="N11" s="7">
-        <v>471463</v>
+        <v>505241</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3044,55 +3528,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>248533</v>
+        <v>10140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H12" s="7">
-        <v>337</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>232792</v>
+        <v>5615</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="M12" s="7">
-        <v>711</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>481325</v>
+        <v>15755</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3585,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>5277</v>
+        <v>2031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>6247</v>
+        <v>4820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>11524</v>
+        <v>6851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3636,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="D14" s="7">
-        <v>18542</v>
+        <v>146400</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="7">
+        <v>210</v>
+      </c>
+      <c r="I14" s="7">
+        <v>146608</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="7">
-        <v>19</v>
-      </c>
-      <c r="I14" s="7">
-        <v>17372</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="M14" s="7">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="N14" s="7">
-        <v>35914</v>
+        <v>293008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3687,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>272352</v>
+        <v>158571</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3218,10 +3702,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3233,10 +3717,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>528763</v>
+        <v>315614</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3250,55 +3734,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1029</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>714460</v>
+        <v>10392</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
-        <v>979</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>673478</v>
+        <v>14491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
-        <v>2008</v>
+        <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>1387938</v>
+        <v>24883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,49 +3791,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>11312</v>
+        <v>5277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>11976</v>
+        <v>2904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>23287</v>
+        <v>8181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,49 +3842,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="D18" s="7">
-        <v>27735</v>
+        <v>164286</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>25937</v>
+        <v>153942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="M18" s="7">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>53673</v>
+        <v>318228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,55 +3893,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>265</v>
+      </c>
+      <c r="D19" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>243</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>508</v>
+      </c>
+      <c r="N19" s="7">
+        <v>351292</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <v>27735</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="7">
+        <v>29</v>
+      </c>
+      <c r="I20" s="7">
+        <v>25937</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M20" s="7">
+        <v>57</v>
+      </c>
+      <c r="N20" s="7">
+        <v>53673</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7">
+        <v>11312</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11976</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M21" s="7">
+        <v>34</v>
+      </c>
+      <c r="N21" s="7">
+        <v>23287</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1029</v>
+      </c>
+      <c r="D22" s="7">
+        <v>714460</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="7">
+        <v>979</v>
+      </c>
+      <c r="I22" s="7">
+        <v>673478</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2008</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1387938</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1074</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>753507</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1025</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>711391</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
         <v>2099</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1464898</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3470,8 +4166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644DD87D-1DA7-4B94-ABD7-D7C5ABD0BF47}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96358A53-AC00-4BB0-A0A7-3EC2DF5E0A71}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3487,7 +4183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3588,49 +4284,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>210198</v>
+        <v>937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>198661</v>
+        <v>1295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>408859</v>
+        <v>2232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,19 +4335,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2028</v>
+        <v>1420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3660,28 +4356,28 @@
         <v>597</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>2625</v>
+        <v>2017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +4386,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7">
-        <v>937</v>
+        <v>121807</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="I6" s="7">
-        <v>2010</v>
+        <v>129762</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="N6" s="7">
-        <v>2947</v>
+        <v>251569</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,10 +4437,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3756,10 +4452,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3771,10 +4467,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3794,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>352</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>241727</v>
+        <v>3411</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="H8" s="7">
-        <v>351</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>229225</v>
+        <v>1880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
-        <v>703</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>470952</v>
+        <v>5291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2468</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1531</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
-        <v>4269</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M9" s="7">
-        <v>12</v>
-      </c>
       <c r="N9" s="7">
-        <v>8298</v>
+        <v>3999</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +4592,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>372</v>
       </c>
       <c r="D10" s="7">
-        <v>4055</v>
+        <v>252182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="I10" s="7">
-        <v>2080</v>
+        <v>207106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>699</v>
       </c>
       <c r="N10" s="7">
-        <v>6135</v>
+        <v>459288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +4643,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3962,10 +4658,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3977,10 +4673,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3994,55 +4690,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>369</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>270749</v>
+        <v>644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="H12" s="7">
-        <v>351</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>248038</v>
+        <v>3716</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="M12" s="7">
-        <v>720</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>518787</v>
+        <v>4360</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +4747,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1389</v>
+        <v>2409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>7161</v>
+        <v>5283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>8550</v>
+        <v>7691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,49 +4798,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>8779</v>
+        <v>185519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="I14" s="7">
-        <v>12570</v>
+        <v>179900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>519</v>
       </c>
       <c r="N14" s="7">
-        <v>21349</v>
+        <v>365420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,10 +4849,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>280916</v>
+        <v>188572</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4168,10 +4864,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I15" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4183,10 +4879,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="N15" s="7">
-        <v>548686</v>
+        <v>377471</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4200,55 +4896,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1037</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>722674</v>
+        <v>8778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
-        <v>1024</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>675924</v>
+        <v>9769</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
-        <v>2061</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>1398599</v>
+        <v>18548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,49 +4953,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>7686</v>
+        <v>1389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4376</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11786</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>19472</v>
+        <v>5765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +5004,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="D18" s="7">
-        <v>13771</v>
+        <v>163167</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="I18" s="7">
-        <v>16660</v>
+        <v>159156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="M18" s="7">
-        <v>35</v>
+        <v>452</v>
       </c>
       <c r="N18" s="7">
-        <v>30431</v>
+        <v>322322</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,55 +5055,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>234</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173334</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>246</v>
+      </c>
+      <c r="I19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>480</v>
+      </c>
+      <c r="N19" s="7">
+        <v>346635</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>13771</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="7">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7">
+        <v>16660</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>35</v>
+      </c>
+      <c r="N20" s="7">
+        <v>30431</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7686</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11786</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M21" s="7">
+        <v>29</v>
+      </c>
+      <c r="N21" s="7">
+        <v>19472</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1037</v>
+      </c>
+      <c r="D22" s="7">
+        <v>722674</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1024</v>
+      </c>
+      <c r="I22" s="7">
+        <v>675924</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2061</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1398599</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1064</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>744131</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1061</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>704371</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
         <v>2125</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1448502</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4420,8 +5328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BBD7BD-2759-4DD9-A987-5DE7934E157D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E970148F-591D-4650-8679-F0FFDD605F1E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4437,7 +5345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4538,49 +5446,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>117017</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>99226</v>
+        <v>1842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="M4" s="7">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>216244</v>
+        <v>2002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,49 +5497,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1423</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,49 +5548,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7">
-        <v>319</v>
+        <v>58344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>138</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="I6" s="7">
-        <v>3755</v>
+        <v>55527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>4074</v>
+        <v>113869</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,10 +5599,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4706,10 +5614,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4721,10 +5629,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4744,49 +5652,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>196541</v>
+        <v>4616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>193297</v>
+        <v>4798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>327</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
-        <v>528</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>389839</v>
+        <v>9414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,46 +5706,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>1173</v>
+        <v>1423</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>230</v>
+        <v>395</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>398</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>3258</v>
+        <v>3506</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>295</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,49 +5754,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="D10" s="7">
-        <v>7341</v>
+        <v>169260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>2885</v>
+        <v>151884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>508</v>
       </c>
       <c r="N10" s="7">
-        <v>10226</v>
+        <v>321143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4912,10 +5820,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4927,10 +5835,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4944,55 +5852,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>462</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>390618</v>
+        <v>4058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H12" s="7">
-        <v>446</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>339987</v>
+        <v>2762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
-        <v>908</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>730605</v>
+        <v>6820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,49 +5909,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3896</v>
+        <v>1598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>417</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>4724</v>
+        <v>1816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>8620</v>
+        <v>3414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,49 +5960,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>8196</v>
+        <v>196822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>422</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>4902</v>
+        <v>171535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>13099</v>
+        <v>368357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,10 +6011,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5118,10 +6026,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5133,10 +6041,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>940</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>752324</v>
+        <v>378591</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5150,55 +6058,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>942</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>704178</v>
+        <v>7022</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
-        <v>907</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>632511</v>
+        <v>2141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
-        <v>1849</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>1336688</v>
+        <v>9162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>431</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,49 +6115,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2650</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3731</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M17" s="7">
         <v>10</v>
       </c>
-      <c r="D17" s="7">
-        <v>5670</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7631</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M17" s="7">
-        <v>21</v>
-      </c>
       <c r="N17" s="7">
-        <v>13301</v>
+        <v>6381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,49 +6166,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="D18" s="7">
-        <v>15856</v>
+        <v>279753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="I18" s="7">
-        <v>11543</v>
+        <v>253566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="N18" s="7">
-        <v>27399</v>
+        <v>533319</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,55 +6217,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>341</v>
+      </c>
+      <c r="I19" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>683</v>
+      </c>
+      <c r="N19" s="7">
+        <v>548862</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7">
+        <v>15856</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7">
+        <v>23</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11543</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M20" s="7">
+        <v>48</v>
+      </c>
+      <c r="N20" s="7">
+        <v>27399</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5670</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H21" s="7">
+        <v>11</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7631</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="7">
+        <v>21</v>
+      </c>
+      <c r="N21" s="7">
+        <v>13301</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>942</v>
+      </c>
+      <c r="D22" s="7">
+        <v>704178</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H22" s="7">
+        <v>907</v>
+      </c>
+      <c r="I22" s="7">
+        <v>632511</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1849</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1336688</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>977</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>725704</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>941</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>651684</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
         <v>1918</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1377388</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A697C355-5AC9-4AC5-BB09-9BD93D108347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A00A24-DB6F-4690-BC2C-74B1FF485E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AE55B09-575B-4B43-82CF-DF6453762D6C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CB924DB-6D14-41E2-AAA5-08260E168AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="465">
   <si>
     <t>Menores según su lugar de nacimiento en 2007 (Tasa respuesta: 99,67%)</t>
   </si>
@@ -80,1354 +80,1357 @@
     <t>3,38%</t>
   </si>
   <si>
-    <t>10,81%</t>
+    <t>10,79%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>95,43%</t>
   </si>
   <si>
     <t>97,06%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>97,78%</t>
@@ -1842,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B6A8F6-F74C-4845-A913-0F4922DD0055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E61ED8-1145-44AC-9320-E16142D24167}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2244,7 +2247,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -2253,13 +2256,13 @@
         <v>26782</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,13 +2277,13 @@
         <v>227884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>334</v>
@@ -2289,13 +2292,13 @@
         <v>222531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>678</v>
@@ -2304,13 +2307,13 @@
         <v>450414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,7 +2369,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2378,13 +2381,13 @@
         <v>4727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2393,13 +2396,13 @@
         <v>5315</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2408,13 +2411,13 @@
         <v>10042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2432,13 @@
         <v>6066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2444,13 +2447,13 @@
         <v>6726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2459,13 +2462,13 @@
         <v>12792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2483,13 @@
         <v>130722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>173</v>
@@ -2495,13 +2498,13 @@
         <v>114829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -2510,13 +2513,13 @@
         <v>245551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,7 +2575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2584,13 +2587,13 @@
         <v>8634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2599,13 +2602,13 @@
         <v>5930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2614,13 +2617,13 @@
         <v>14564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2638,13 @@
         <v>13059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2650,13 +2653,13 @@
         <v>4876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -2665,13 +2668,13 @@
         <v>17935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2689,13 @@
         <v>183724</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
@@ -2701,13 +2704,13 @@
         <v>183292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>547</v>
@@ -2716,13 +2719,13 @@
         <v>367016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2793,13 @@
         <v>33195</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2805,13 +2808,13 @@
         <v>31487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>96</v>
@@ -2820,13 +2823,13 @@
         <v>64681</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2844,13 @@
         <v>40979</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2856,13 +2859,13 @@
         <v>32466</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -2871,13 +2874,13 @@
         <v>73446</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,16 +2892,16 @@
         <v>973</v>
       </c>
       <c r="D22" s="7">
-        <v>645811</v>
+        <v>645812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>922</v>
@@ -2907,13 +2910,13 @@
         <v>615234</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>1895</v>
@@ -2922,13 +2925,13 @@
         <v>1261045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,7 +2943,7 @@
         <v>1082</v>
       </c>
       <c r="D23" s="7">
-        <v>719985</v>
+        <v>719986</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3004,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FB4F44-2377-408C-A73C-183D58A8E1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8BCF7D-0FF7-40FA-B00F-7A7AA558C9BF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3358,7 @@
         <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3367,10 +3370,10 @@
         <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3388,13 @@
         <v>3248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3400,13 +3403,13 @@
         <v>4251</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3415,13 +3418,13 @@
         <v>7499</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3439,13 @@
         <v>258540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>328</v>
@@ -3451,13 +3454,13 @@
         <v>226734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>690</v>
@@ -3466,13 +3469,13 @@
         <v>485274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3531,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3543,13 @@
         <v>10140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3555,13 +3558,13 @@
         <v>5615</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3570,13 +3573,13 @@
         <v>15755</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3594,13 @@
         <v>2031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3606,13 +3609,13 @@
         <v>4820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3621,13 +3624,13 @@
         <v>6851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3645,13 @@
         <v>146400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -3657,13 +3660,13 @@
         <v>146608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
@@ -3672,13 +3675,13 @@
         <v>293008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3737,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3746,13 +3749,13 @@
         <v>10392</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3761,13 +3764,13 @@
         <v>14491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3776,13 +3779,13 @@
         <v>24883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3800,13 @@
         <v>5277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3812,13 +3815,13 @@
         <v>2904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3827,13 +3830,13 @@
         <v>8181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3851,13 @@
         <v>164286</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3863,13 +3866,13 @@
         <v>153942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>469</v>
@@ -3878,13 +3881,13 @@
         <v>318228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3955,13 @@
         <v>27735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3967,13 +3970,13 @@
         <v>25937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -3982,13 +3985,13 @@
         <v>53673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4006,13 @@
         <v>11312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -4018,13 +4021,13 @@
         <v>11976</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -4033,13 +4036,13 @@
         <v>23287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4057,13 @@
         <v>714460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>979</v>
@@ -4069,13 +4072,13 @@
         <v>673478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -4084,13 +4087,13 @@
         <v>1387938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96358A53-AC00-4BB0-A0A7-3EC2DF5E0A71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A45547-99D8-4AE9-B39F-AC75979E48A2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4183,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4290,13 +4293,13 @@
         <v>937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4305,13 +4308,13 @@
         <v>1295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4323,10 +4326,10 @@
         <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4344,13 @@
         <v>1420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4356,13 +4359,13 @@
         <v>597</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4371,13 +4374,13 @@
         <v>2017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4395,13 @@
         <v>121807</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>208</v>
@@ -4407,13 +4410,13 @@
         <v>129762</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>391</v>
@@ -4422,13 +4425,13 @@
         <v>251569</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4499,13 @@
         <v>3411</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4511,13 +4514,13 @@
         <v>1880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4526,13 +4529,13 @@
         <v>5291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4550,13 @@
         <v>2468</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4562,13 +4565,13 @@
         <v>1531</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4577,13 +4580,13 @@
         <v>3999</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4601,13 @@
         <v>252182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>327</v>
@@ -4613,13 +4616,13 @@
         <v>207106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>699</v>
@@ -4628,13 +4631,13 @@
         <v>459288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,7 +4693,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4702,13 +4705,13 @@
         <v>644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4717,13 +4720,13 @@
         <v>3716</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4732,13 +4735,13 @@
         <v>4360</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4756,13 @@
         <v>2409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4768,13 +4771,13 @@
         <v>5283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4783,13 +4786,13 @@
         <v>7691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4807,13 @@
         <v>185519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>260</v>
@@ -4819,13 +4822,13 @@
         <v>179900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -4834,13 +4837,13 @@
         <v>365420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4899,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4908,13 +4911,13 @@
         <v>8778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4926,10 +4929,10 @@
         <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4938,13 +4941,13 @@
         <v>18548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4962,13 @@
         <v>1389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4974,13 +4977,13 @@
         <v>4376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4989,13 +4992,13 @@
         <v>5765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5013,13 @@
         <v>163167</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -5025,13 +5028,13 @@
         <v>159156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M18" s="7">
         <v>452</v>
@@ -5040,13 +5043,13 @@
         <v>322322</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5117,13 @@
         <v>13771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5129,13 +5132,13 @@
         <v>16660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -5144,13 +5147,13 @@
         <v>30431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5168,13 @@
         <v>7686</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -5180,13 +5183,13 @@
         <v>11786</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>360</v>
+        <v>179</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -5195,13 +5198,13 @@
         <v>19472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5219,13 @@
         <v>722674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1024</v>
@@ -5231,13 +5234,13 @@
         <v>675924</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>2061</v>
@@ -5246,13 +5249,13 @@
         <v>1398599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E970148F-591D-4650-8679-F0FFDD605F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615AF1BA-8991-418F-BE0C-F7B618292F62}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5345,7 +5348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5452,13 +5455,13 @@
         <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5467,13 +5470,13 @@
         <v>1842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5482,13 +5485,13 @@
         <v>2002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5512,7 @@
         <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5524,7 +5527,7 @@
         <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5539,7 +5542,7 @@
         <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,10 +5557,10 @@
         <v>58344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>164</v>
@@ -5569,13 +5572,13 @@
         <v>55527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -5584,13 +5587,13 @@
         <v>113869</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5661,13 @@
         <v>4616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -5673,13 +5676,13 @@
         <v>4798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -5688,13 +5691,13 @@
         <v>9414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5712,13 @@
         <v>1423</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>396</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5724,13 +5727,13 @@
         <v>2083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5739,13 +5742,13 @@
         <v>3506</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5763,13 @@
         <v>169260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>244</v>
@@ -5775,13 +5778,13 @@
         <v>151884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>508</v>
@@ -5790,13 +5793,13 @@
         <v>321143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,7 +5855,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5864,13 +5867,13 @@
         <v>4058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5879,13 +5882,13 @@
         <v>2762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5894,13 +5897,13 @@
         <v>6820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5918,13 @@
         <v>1598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5930,13 +5933,13 @@
         <v>1816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5945,13 +5948,13 @@
         <v>3414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5969,13 @@
         <v>196822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -5981,13 +5984,13 @@
         <v>171535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7">
         <v>463</v>
@@ -5996,13 +5999,13 @@
         <v>368357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6070,13 +6073,13 @@
         <v>7022</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6085,13 +6088,13 @@
         <v>2141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -6100,13 +6103,13 @@
         <v>9162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,10 +6127,10 @@
         <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6136,13 +6139,13 @@
         <v>3731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6151,13 +6154,13 @@
         <v>6381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6175,13 @@
         <v>279753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H18" s="7">
         <v>330</v>
@@ -6187,13 +6190,13 @@
         <v>253566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M18" s="7">
         <v>658</v>
@@ -6202,13 +6205,13 @@
         <v>533319</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6279,13 @@
         <v>15856</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -6291,13 +6294,13 @@
         <v>11543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>15</v>
+        <v>451</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>447</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>448</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6306,13 +6309,13 @@
         <v>27399</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6330,13 @@
         <v>5670</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>227</v>
+        <v>455</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>452</v>
+        <v>183</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6342,13 +6345,13 @@
         <v>7631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -6357,13 +6360,13 @@
         <v>13301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6381,13 @@
         <v>704178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
         <v>907</v>
@@ -6393,13 +6396,13 @@
         <v>632511</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>1849</v>
@@ -6408,13 +6411,13 @@
         <v>1336688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A00A24-DB6F-4690-BC2C-74B1FF485E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60214662-C19C-44A6-878B-0562C8F8A67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CB924DB-6D14-41E2-AAA5-08260E168AE4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{095E64DE-2A4B-401B-94AB-E4F93E513016}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="455">
   <si>
     <t>Menores según su lugar de nacimiento en 2007 (Tasa respuesta: 99,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1366 +74,1336 @@
     <t>Extranjero</t>
   </si>
   <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Menores según su lugar de nacimiento en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E61ED8-1145-44AC-9320-E16142D24167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2B4258-124B-4EBC-BD25-E596CA438632}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>7496</v>
+        <v>4063</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1978,10 +1948,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>4063</v>
+        <v>7496</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2014,10 +1984,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>8992</v>
+        <v>6945</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2029,10 +1999,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>6945</v>
+        <v>8992</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2065,10 +2035,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7">
-        <v>103481</v>
+        <v>94584</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2080,10 +2050,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>94584</v>
+        <v>103481</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2116,25 +2086,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7">
+        <v>105592</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>180</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>119968</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105592</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2169,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>12338</v>
+        <v>16179</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2184,10 +2154,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
-        <v>16179</v>
+        <v>12338</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2220,10 +2190,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>12862</v>
+        <v>13920</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2235,10 +2205,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>13920</v>
+        <v>12862</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2271,10 +2241,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D10" s="7">
-        <v>227884</v>
+        <v>222531</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2286,10 +2256,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="I10" s="7">
-        <v>222531</v>
+        <v>227884</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2322,25 +2292,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>378</v>
+      </c>
+      <c r="D11" s="7">
+        <v>252629</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>381</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253084</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>378</v>
-      </c>
-      <c r="I11" s="7">
-        <v>252629</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2375,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>4727</v>
+        <v>5315</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2390,19 +2360,19 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5315</v>
+        <v>4727</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2411,13 +2381,13 @@
         <v>10042</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,31 +2399,31 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>6066</v>
+        <v>6726</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>6726</v>
+        <v>6066</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2462,13 +2432,13 @@
         <v>12792</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,34 +2447,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>173</v>
+      </c>
+      <c r="D14" s="7">
+        <v>114829</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
         <v>196</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>130722</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="7">
-        <v>173</v>
-      </c>
-      <c r="I14" s="7">
-        <v>114829</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -2513,13 +2483,13 @@
         <v>245551</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,25 +2498,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>190</v>
+      </c>
+      <c r="D15" s="7">
+        <v>126870</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>190</v>
-      </c>
-      <c r="I15" s="7">
-        <v>126870</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2575,40 +2545,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5930</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="7">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>8634</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5930</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2617,13 +2587,13 @@
         <v>14564</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,34 +2602,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4876</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7">
         <v>19</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>13059</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4876</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -2668,13 +2638,13 @@
         <v>17935</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,34 +2653,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>270</v>
+      </c>
+      <c r="D18" s="7">
+        <v>183292</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7">
         <v>277</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>183724</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>270</v>
-      </c>
-      <c r="I18" s="7">
-        <v>183292</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>547</v>
@@ -2719,13 +2689,13 @@
         <v>367016</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,25 +2704,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>286</v>
+      </c>
+      <c r="D19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>309</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>205418</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>286</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194097</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2787,34 +2757,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7">
+        <v>31487</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="7">
         <v>49</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>33195</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>47</v>
-      </c>
-      <c r="I20" s="7">
-        <v>31487</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>96</v>
@@ -2823,13 +2793,13 @@
         <v>64681</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,34 +2808,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7">
+        <v>32466</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
         <v>60</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>40979</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="7">
-        <v>46</v>
-      </c>
-      <c r="I21" s="7">
-        <v>32466</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -2889,10 +2859,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>973</v>
+        <v>922</v>
       </c>
       <c r="D22" s="7">
-        <v>645812</v>
+        <v>615234</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>140</v>
@@ -2904,10 +2874,10 @@
         <v>142</v>
       </c>
       <c r="H22" s="7">
-        <v>922</v>
+        <v>973</v>
       </c>
       <c r="I22" s="7">
-        <v>615234</v>
+        <v>645811</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>143</v>
@@ -2916,7 +2886,7 @@
         <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>1895</v>
@@ -2925,13 +2895,13 @@
         <v>1261045</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,25 +2910,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D23" s="7">
+        <v>679187</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1082</v>
       </c>
-      <c r="D23" s="7">
-        <v>719986</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1015</v>
-      </c>
       <c r="I23" s="7">
-        <v>679187</v>
+        <v>719985</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3007,7 +2977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8BCF7D-0FF7-40FA-B00F-7A7AA558C9BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5953F18B-DE52-486A-AEE2-88C3AF63EA31}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3125,10 +3095,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>150</v>
@@ -3140,16 +3110,16 @@
         <v>152</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>154</v>
@@ -3164,7 +3134,7 @@
         <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>156</v>
@@ -3176,28 +3146,28 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>756</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>151</v>
@@ -3215,7 +3185,7 @@
         <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>161</v>
@@ -3227,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D6" s="7">
-        <v>145234</v>
+        <v>146194</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>162</v>
@@ -3242,10 +3212,10 @@
         <v>164</v>
       </c>
       <c r="H6" s="7">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>146194</v>
+        <v>145234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>165</v>
@@ -3278,25 +3248,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3331,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>7203</v>
+        <v>5265</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>169</v>
@@ -3346,10 +3316,10 @@
         <v>171</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>5265</v>
+        <v>7203</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>172</v>
@@ -3358,7 +3328,7 @@
         <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3367,13 +3337,13 @@
         <v>12468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,34 +3352,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4251</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>3248</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4251</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3418,13 +3388,13 @@
         <v>7499</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,10 +3403,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="D10" s="7">
-        <v>258540</v>
+        <v>226734</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>186</v>
@@ -3448,10 +3418,10 @@
         <v>188</v>
       </c>
       <c r="H10" s="7">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>226734</v>
+        <v>258540</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>189</v>
@@ -3484,25 +3454,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3537,34 +3507,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5615</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10140</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5615</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3573,13 +3543,13 @@
         <v>15755</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,34 +3558,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4820</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2031</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4820</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3624,13 +3594,13 @@
         <v>6851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,34 +3609,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7">
+        <v>146608</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="7">
         <v>215</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>146400</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="7">
-        <v>210</v>
-      </c>
-      <c r="I14" s="7">
-        <v>146608</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
@@ -3675,13 +3645,13 @@
         <v>293008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,25 +3660,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3737,40 +3707,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14491</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>10392</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14491</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3779,13 +3749,13 @@
         <v>24883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,34 +3764,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2904</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="7">
         <v>8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>5277</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2904</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3830,13 +3800,13 @@
         <v>8181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,34 +3815,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>223</v>
+      </c>
+      <c r="D18" s="7">
+        <v>153942</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="7">
         <v>246</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>164286</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="7">
-        <v>223</v>
-      </c>
-      <c r="I18" s="7">
-        <v>153942</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M18" s="7">
         <v>469</v>
@@ -3881,13 +3851,13 @@
         <v>318228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,25 +3866,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3949,34 +3919,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25937</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="7">
         <v>28</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>27735</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H20" s="7">
-        <v>29</v>
-      </c>
-      <c r="I20" s="7">
-        <v>25937</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -3985,13 +3955,13 @@
         <v>53673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,31 +3973,31 @@
         <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>11312</v>
+        <v>11976</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>11976</v>
+        <v>11312</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -4036,13 +4006,13 @@
         <v>23287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,34 +4021,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>979</v>
+      </c>
+      <c r="D22" s="7">
+        <v>673478</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H22" s="7">
         <v>1029</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>714460</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H22" s="7">
-        <v>979</v>
-      </c>
-      <c r="I22" s="7">
-        <v>673478</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -4087,13 +4057,13 @@
         <v>1387938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,25 +4072,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1025</v>
+      </c>
+      <c r="D23" s="7">
+        <v>711391</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1074</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>753507</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I23" s="7">
-        <v>711391</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4169,7 +4139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A45547-99D8-4AE9-B39F-AC75979E48A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D27937-73E9-4690-9046-9A787D22BFB7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4186,7 +4156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4287,34 +4257,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1295</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>937</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1295</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4323,13 +4293,13 @@
         <v>2232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,34 +4308,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>597</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>1420</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>597</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4374,13 +4344,13 @@
         <v>2017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,34 +4359,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>208</v>
+      </c>
+      <c r="D6" s="7">
+        <v>129762</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="7">
         <v>183</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121807</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H6" s="7">
-        <v>208</v>
-      </c>
-      <c r="I6" s="7">
-        <v>129762</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>391</v>
@@ -4425,13 +4395,13 @@
         <v>251569</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,25 +4410,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4493,34 +4463,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1880</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>3411</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1880</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4529,13 +4499,13 @@
         <v>5291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,34 +4514,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1531</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2468</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1531</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4580,13 +4550,13 @@
         <v>3999</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,34 +4565,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>327</v>
+      </c>
+      <c r="D10" s="7">
+        <v>207106</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="7">
         <v>372</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>252182</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H10" s="7">
-        <v>327</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207106</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>699</v>
@@ -4631,13 +4601,13 @@
         <v>459288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,25 +4616,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4699,34 +4669,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3716</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>644</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3716</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4735,13 +4705,13 @@
         <v>4360</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,34 +4720,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5283</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2409</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5283</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4786,13 +4756,13 @@
         <v>7691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,34 +4771,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>260</v>
+      </c>
+      <c r="D14" s="7">
+        <v>179900</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="7">
         <v>259</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>185519</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="7">
-        <v>260</v>
-      </c>
-      <c r="I14" s="7">
-        <v>179900</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -4837,13 +4807,13 @@
         <v>365420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,25 +4822,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4899,40 +4869,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9769</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>8778</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9769</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4941,13 +4911,13 @@
         <v>18548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,34 +4926,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4376</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1389</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4376</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4992,13 +4962,13 @@
         <v>5765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,34 +4977,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>229</v>
+      </c>
+      <c r="D18" s="7">
+        <v>159156</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H18" s="7">
         <v>223</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>163167</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" s="7">
-        <v>229</v>
-      </c>
-      <c r="I18" s="7">
-        <v>159156</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>452</v>
@@ -5043,13 +5013,13 @@
         <v>322322</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,25 +5028,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>234</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>173334</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5111,34 +5081,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7">
+        <v>16660</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="7">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>13771</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7">
-        <v>16660</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -5147,13 +5117,13 @@
         <v>30431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,34 +5132,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7">
+        <v>11786</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="7">
         <v>12</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>7686</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H21" s="7">
-        <v>17</v>
-      </c>
-      <c r="I21" s="7">
-        <v>11786</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -5198,13 +5168,13 @@
         <v>19472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,34 +5183,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D22" s="7">
+        <v>675924</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" s="7">
         <v>1037</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>722674</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I22" s="7">
-        <v>675924</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>2061</v>
@@ -5249,13 +5219,13 @@
         <v>1398599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,25 +5234,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D23" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1064</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744131</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5331,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615AF1BA-8991-418F-BE0C-F7B618292F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0366B9AF-BFE6-4F27-B036-195355058733}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5348,7 +5318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5449,49 +5419,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1969</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>159</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
       <c r="I4" s="7">
-        <v>1842</v>
+        <v>165</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2002</v>
+        <v>2134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5521,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5536,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,49 +5521,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>105</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55542</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="7">
         <v>115</v>
       </c>
-      <c r="D6" s="7">
-        <v>58344</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>61279</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H6" s="7">
-        <v>105</v>
-      </c>
-      <c r="I6" s="7">
-        <v>55527</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>113869</v>
+        <v>116821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,25 +5572,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5635,7 +5605,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5655,49 +5625,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5558</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
-        <v>4616</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
       <c r="I8" s="7">
-        <v>4798</v>
+        <v>5302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>389</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>9414</v>
+        <v>10861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,46 +5679,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>1423</v>
+        <v>2062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>402</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>2083</v>
+        <v>1454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,49 +5727,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>244</v>
+      </c>
+      <c r="D10" s="7">
+        <v>151679</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="7">
         <v>264</v>
       </c>
-      <c r="D10" s="7">
-        <v>169260</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H10" s="7">
-        <v>244</v>
-      </c>
       <c r="I10" s="7">
-        <v>151884</v>
+        <v>175798</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>508</v>
       </c>
       <c r="N10" s="7">
-        <v>321143</v>
+        <v>327477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,25 +5778,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5841,7 +5811,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5861,49 +5831,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3590</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
-        <v>4058</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
       <c r="I12" s="7">
-        <v>2762</v>
+        <v>4267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>6820</v>
+        <v>7857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>417</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,49 +5882,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1659</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>1598</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
       <c r="I13" s="7">
-        <v>1816</v>
+        <v>1660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>3414</v>
+        <v>3319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,49 +5933,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>228</v>
+      </c>
+      <c r="D14" s="7">
+        <v>167823</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
-        <v>196822</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H14" s="7">
-        <v>228</v>
-      </c>
       <c r="I14" s="7">
-        <v>171535</v>
+        <v>206563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>368357</v>
+        <v>374388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>431</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,25 +5984,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6047,7 +6017,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6061,55 +6031,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2161</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
-        <v>7022</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
       <c r="I16" s="7">
-        <v>2141</v>
+        <v>10283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>9162</v>
+        <v>12443</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,49 +6088,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3699</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>2650</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
       <c r="I17" s="7">
-        <v>3731</v>
+        <v>2833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>6381</v>
+        <v>6532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,49 +6139,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>330</v>
+      </c>
+      <c r="D18" s="7">
+        <v>268407</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H18" s="7">
         <v>328</v>
       </c>
-      <c r="D18" s="7">
-        <v>279753</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H18" s="7">
-        <v>330</v>
-      </c>
       <c r="I18" s="7">
-        <v>253566</v>
+        <v>292367</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>658</v>
       </c>
       <c r="N18" s="7">
-        <v>533319</v>
+        <v>560775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,25 +6190,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>342</v>
       </c>
-      <c r="D19" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>341</v>
-      </c>
       <c r="I19" s="7">
-        <v>259438</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6253,7 +6223,7 @@
         <v>683</v>
       </c>
       <c r="N19" s="7">
-        <v>548862</v>
+        <v>579750</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6273,49 +6243,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7">
+        <v>13277</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="7">
         <v>25</v>
       </c>
-      <c r="D20" s="7">
-        <v>15856</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7">
-        <v>23</v>
-      </c>
       <c r="I20" s="7">
-        <v>11543</v>
+        <v>20017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
       </c>
       <c r="N20" s="7">
-        <v>27399</v>
+        <v>33295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,49 +6294,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7420</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="7">
-        <v>5670</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="7">
-        <v>11</v>
-      </c>
       <c r="I21" s="7">
-        <v>7631</v>
+        <v>5946</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
       </c>
       <c r="N21" s="7">
-        <v>13301</v>
+        <v>13366</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,49 +6345,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>907</v>
+      </c>
+      <c r="D22" s="7">
+        <v>643453</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H22" s="7">
         <v>942</v>
       </c>
-      <c r="D22" s="7">
-        <v>704178</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="7">
-        <v>907</v>
-      </c>
       <c r="I22" s="7">
-        <v>632511</v>
+        <v>736008</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>1849</v>
       </c>
       <c r="N22" s="7">
-        <v>1336688</v>
+        <v>1379461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,25 +6396,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>941</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664150</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
       <c r="I23" s="7">
-        <v>651684</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6459,7 +6429,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377388</v>
+        <v>1426122</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
